--- a/testing/politifact_datasets/cleaned_statements.xlsx
+++ b/testing/politifact_datasets/cleaned_statements.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="244">
   <si>
     <t>Number</t>
   </si>
@@ -550,10 +550,10 @@
     <t>Dick Cheney</t>
   </si>
   <si>
-    <t>18 percent of our land in our state right now is either federally, state or county owned for conservation purposes.</t>
-  </si>
-  <si>
-    <t>Alberta Darling</t>
+    <t>Perry pushed for a law that lets insurance companies raise homeowners’ rates without having to justify the increase.</t>
+  </si>
+  <si>
+    <t>Back to Basics</t>
   </si>
   <si>
     <t>A 5 percent increase in domestic production would increase the world supply by less than 1 percent and do almost nothing to our dependence on foreign oil. This would also have virtually no effect on the price of gas at the pump.</t>
@@ -656,12 +656,6 @@
   </si>
   <si>
     <t>Mike Enzi</t>
-  </si>
-  <si>
-    <t>Perry pushed for a law that lets insurance companies raise homeowners’ rates without having to justify the increase.</t>
-  </si>
-  <si>
-    <t>Back to Basics</t>
   </si>
   <si>
     <t>ADHD does not exist.</t>
@@ -2559,13 +2553,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
       <c r="A101" s="3">
-        <v>12977</v>
+        <v>5088</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>178</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>179</v>
@@ -2842,13 +2836,13 @@
         <v>5088</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>103</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
@@ -2856,7 +2850,7 @@
         <v>21526</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>103</v>
@@ -2870,7 +2864,7 @@
         <v>17086</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>103</v>
@@ -2884,7 +2878,7 @@
         <v>22726</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>103</v>
@@ -2898,7 +2892,7 @@
         <v>22423</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>103</v>
@@ -2912,13 +2906,13 @@
         <v>10380</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>103</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
@@ -2926,13 +2920,13 @@
         <v>12282</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>103</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
@@ -2940,7 +2934,7 @@
         <v>16277</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>103</v>
@@ -2954,7 +2948,7 @@
         <v>23005</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>103</v>
@@ -2968,13 +2962,13 @@
         <v>10905</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>103</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
@@ -2982,7 +2976,7 @@
         <v>4930</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>103</v>
@@ -2996,7 +2990,7 @@
         <v>21319</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>103</v>
@@ -3010,13 +3004,13 @@
         <v>2061</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>103</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
@@ -3024,13 +3018,13 @@
         <v>8068</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>103</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
@@ -3038,7 +3032,7 @@
         <v>5530</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>103</v>
@@ -3052,13 +3046,13 @@
         <v>11342</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>103</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
@@ -3066,7 +3060,7 @@
         <v>16840</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>103</v>
@@ -3080,13 +3074,13 @@
         <v>12638</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>103</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
@@ -3094,7 +3088,7 @@
         <v>16323</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>103</v>
@@ -3108,7 +3102,7 @@
         <v>18981</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>103</v>
@@ -3122,13 +3116,13 @@
         <v>18216</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>103</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
@@ -3136,7 +3130,7 @@
         <v>10257</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>103</v>
@@ -3150,7 +3144,7 @@
         <v>498</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>103</v>

--- a/testing/politifact_datasets/cleaned_statements.xlsx
+++ b/testing/politifact_datasets/cleaned_statements.xlsx
@@ -770,7 +770,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2327,7 +2327,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
       <c r="A85" s="3">
         <v>10662</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
       <c r="A86" s="3">
         <v>13762</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>156</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
       <c r="A87" s="3">
         <v>22506</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
       <c r="A88" s="3">
         <v>17491</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
       <c r="A89" s="3">
         <v>16726</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
       <c r="A90" s="3">
         <v>10702</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
       <c r="A91" s="3">
         <v>846</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>163</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
       <c r="A92" s="3">
         <v>12685</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>165</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
       <c r="A93" s="3">
         <v>13443</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
       <c r="A94" s="3">
         <v>23684</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>169</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
       <c r="A95" s="3">
         <v>23326</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>115</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
       <c r="A96" s="3">
         <v>10892</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
       <c r="A97" s="3">
         <v>22294</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
       <c r="A98" s="3">
         <v>15284</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>174</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
       <c r="A99" s="3">
         <v>18107</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
       <c r="A100" s="3">
         <v>13869</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>177</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
       <c r="A101" s="3">
         <v>5088</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>179</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
       <c r="A102" s="3">
         <v>329</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
       <c r="A103" s="3">
         <v>13739</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>182</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
       <c r="A104" s="3">
         <v>5225</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>184</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
       <c r="A105" s="3">
         <v>13921</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>186</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
       <c r="A106" s="3">
         <v>12067</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>188</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
       <c r="A107" s="3">
         <v>9858</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>190</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
       <c r="A108" s="3">
         <v>6285</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
       <c r="A109" s="3">
         <v>2293</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
       <c r="A110" s="3">
         <v>4716</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
       <c r="A111" s="3">
         <v>1609</v>
       </c>

--- a/testing/politifact_datasets/cleaned_statements.xlsx
+++ b/testing/politifact_datasets/cleaned_statements.xlsx
@@ -2229,7 +2229,7 @@
         <v>143</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
       <c r="A78" s="3">
         <v>875</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>145</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
       <c r="A79" s="3">
         <v>12946</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>147</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
       <c r="A80" s="3">
         <v>21865</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
       <c r="A81" s="3">
         <v>20562</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
       <c r="A82" s="3">
         <v>19286</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>115</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
       <c r="A83" s="3">
         <v>3634</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>152</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
       <c r="A84" s="3">
         <v>23413</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
       <c r="A103" s="3">
         <v>13739</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>182</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
       <c r="A104" s="3">
         <v>5225</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>184</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
       <c r="A105" s="3">
         <v>13921</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>186</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
       <c r="A106" s="3">
         <v>12067</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>188</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
       <c r="A107" s="3">
         <v>9858</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>190</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
       <c r="A108" s="3">
         <v>6285</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
       <c r="A109" s="3">
         <v>2293</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
       <c r="A110" s="3">
         <v>4716</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
       <c r="A111" s="3">
         <v>1609</v>
       </c>
